--- a/data/sleepdata.xlsx
+++ b/data/sleepdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\Personen\Me\Sleep_Optimizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C97DD-24F4-49D4-B320-F42F1856DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93CB8C0-F348-4BEE-8A2F-B3A7DADF73BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2170" yWindow="3740" windowWidth="18770" windowHeight="10910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +85,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -363,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,6 +411,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>387</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>412</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>83.4</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>402</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>84.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sleepdata.xlsx
+++ b/data/sleepdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\Personen\Me\Sleep_Optimizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93CB8C0-F348-4BEE-8A2F-B3A7DADF73BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A94FC-625D-41B9-AC02-CDB5B5EA165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="3740" windowWidth="18770" windowHeight="10910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,6 +476,52 @@
       <c r="F4">
         <v>84.4</v>
       </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>435</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>87.5</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>441</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>88.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sleepdata.xlsx
+++ b/data/sleepdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dokumente\Personen\Me\Sleep_Optimizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43A94FC-625D-41B9-AC02-CDB5B5EA165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927205D-4C40-42E2-8A7F-F8236FF2FFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2170" yWindow="3740" windowWidth="18770" windowHeight="10910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,6 +522,32 @@
       <c r="F6">
         <v>88.6</v>
       </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>452</v>
+      </c>
+      <c r="E7">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
